--- a/크롤링 완료/20231108_dcn 리뷰이관 요청.xlsx
+++ b/크롤링 완료/20231108_dcn 리뷰이관 요청.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyungmin/Documents/review_crawling/크롤링 완료/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3ACBAFC-3F25-DF46-A048-A81F24917D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94C7C3B-0748-F849-AA48-84992BE3583F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34560" yWindow="1880" windowWidth="38400" windowHeight="21100" xr2:uid="{F57EEB2E-DD21-4E98-9FB5-49EFBF78576A}"/>
+    <workbookView xWindow="-20" yWindow="1740" windowWidth="34560" windowHeight="21100" xr2:uid="{F57EEB2E-DD21-4E98-9FB5-49EFBF78576A}"/>
   </bookViews>
   <sheets>
     <sheet name="230908-500150359" sheetId="2" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>knowledgeShoppingMallProductId</t>
-  </si>
-  <si>
     <t>originProductNo</t>
   </si>
   <si>
@@ -318,10 +315,6 @@
     <t>https://phinf.pstatic.net/checkout.phinf/20231026_54/1698316879305Uv843_JPEG/IMG_5791.jpeg^|^https://phinf.pstatic.net/checkout.phinf/20231026_71/1698316879539q5aXv_JPEG/IMG_5790.jpeg</t>
   </si>
   <si>
-    <t>상품코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -344,8 +337,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이미지파싱</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>knowledgeShoppingMallProductId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onnsProductItemNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parseImg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -378,15 +379,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="나눔명조"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -464,14 +466,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,7 +482,65 @@
   <dxfs count="12">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -528,66 +588,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -622,7 +623,7 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{2A67E6F2-A635-409B-9E66-077C4099233A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="17" unboundColumnsRight="6">
+  <queryTableRefresh nextId="18" unboundColumnsRight="6">
     <queryTableFields count="16">
       <queryTableField id="1" name="id" tableColumnId="1"/>
       <queryTableField id="2" name="knowledgeShoppingMallProductId" tableColumnId="2"/>
@@ -634,8 +635,8 @@
       <queryTableField id="8" name="writerMemberId" tableColumnId="8"/>
       <queryTableField id="9" name="createDate" tableColumnId="9"/>
       <queryTableField id="10" name="reviewUrls" tableColumnId="10"/>
+      <queryTableField id="17" dataBound="0" tableColumnId="17"/>
       <queryTableField id="11" dataBound="0" tableColumnId="11"/>
-      <queryTableField id="12" dataBound="0" tableColumnId="12"/>
       <queryTableField id="13" dataBound="0" tableColumnId="13"/>
       <queryTableField id="14" dataBound="0" tableColumnId="14"/>
       <queryTableField id="15" dataBound="0" tableColumnId="15"/>
@@ -659,20 +660,20 @@
     <tableColumn id="8" xr3:uid="{A0941241-B4A8-471C-B72A-BCCFCD3D7C9A}" uniqueName="8" name="writerMemberId" queryTableFieldId="8" dataDxfId="8"/>
     <tableColumn id="9" xr3:uid="{576CFCB8-ABB8-438F-A0EF-6DD480518911}" uniqueName="9" name="createDate" queryTableFieldId="9" dataDxfId="7"/>
     <tableColumn id="10" xr3:uid="{BBD30DBF-C8B0-48FF-89EB-95D9CD4F184D}" uniqueName="10" name="reviewUrls" queryTableFieldId="10" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{D0FFE122-B436-4C40-91B4-2D33F493D95F}" uniqueName="11" name="이미지파싱" queryTableFieldId="11" dataDxfId="0">
+    <tableColumn id="17" xr3:uid="{9FBF09DD-616A-0041-8D12-D8585EEA3A56}" uniqueName="17" name="onnsProductItemNo" queryTableFieldId="17" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{D0FFE122-B436-4C40-91B4-2D33F493D95F}" uniqueName="11" name="parseImg" queryTableFieldId="11" dataDxfId="5">
       <calculatedColumnFormula>IF(J2 ="","",CONCATENATE("[",SUBSTITUTE(J2,"&amp;",""""),"]"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{8BE43B2C-F1C0-4703-8FEC-2D19DEA74626}" uniqueName="12" name="상품코드" queryTableFieldId="12" dataDxfId="5"/>
     <tableColumn id="13" xr3:uid="{C2B22EB1-DF8C-4068-88DC-2491D1F69462}" uniqueName="13" name="시간" queryTableFieldId="13" dataDxfId="4">
       <calculatedColumnFormula>LEFT(I2,19)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{B37593B6-9567-4FB3-961C-EDE90D498F2E}" uniqueName="14" name="열2" queryTableFieldId="14" dataDxfId="3">
+    <tableColumn id="14" xr3:uid="{B37593B6-9567-4FB3-961C-EDE90D498F2E}" uniqueName="14" name="열2" queryTableFieldId="14" dataDxfId="1">
       <calculatedColumnFormula>"INSERT INTO product_review (created_date, img_urls, rating,text, order_product_id, product_item_id, user_id, writer_name, writer_nickname,channel_type, shopping_mall_product_id) values "&amp;O2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A80562C7-35E8-4222-95AE-5B1FC06F5D97}" uniqueName="15" name="열3" queryTableFieldId="15" dataDxfId="2">
-      <calculatedColumnFormula>"('"&amp;M2&amp;"', '"&amp;K2&amp;"','"&amp;G2&amp;"','"&amp;F2&amp;"',null,'"&amp;L2&amp;"',null,'"&amp;H2&amp;"','"&amp;H2&amp;"','SMARTSTORE',"&amp;B2&amp;" );"</calculatedColumnFormula>
+    <tableColumn id="15" xr3:uid="{A80562C7-35E8-4222-95AE-5B1FC06F5D97}" uniqueName="15" name="열3" queryTableFieldId="15" dataDxfId="0">
+      <calculatedColumnFormula>"('"&amp;M2&amp;"', '"&amp;L2&amp;"','"&amp;G2&amp;"','"&amp;F2&amp;"',null,'"&amp;K2&amp;"',null,'"&amp;H2&amp;"','"&amp;H2&amp;"','SMARTSTORE',"&amp;B2&amp;" );"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{2FAA3943-11BF-D241-9408-D0A94AAFC984}" uniqueName="16" name="스마트스토어" queryTableFieldId="16" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{2FAA3943-11BF-D241-9408-D0A94AAFC984}" uniqueName="16" name="스마트스토어" queryTableFieldId="16" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -977,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE80F5A-8145-4390-87ED-A029464726C0}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R1" sqref="Q1:R1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -993,8 +994,8 @@
     <col min="8" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="74.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="23" customWidth="1"/>
+    <col min="11" max="11" width="18.83203125" customWidth="1"/>
+    <col min="12" max="12" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1002,49 +1003,49 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1058,49 +1059,49 @@
         <v>9310350894</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1">
         <v>45231.670854849537</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="6" t="str">
-        <f t="shared" ref="K2:K23" si="0">IF(J2 ="","",CONCATENATE("[",SUBSTITUTE(J2,"&amp;",""""),"]"))</f>
+        <v>13</v>
+      </c>
+      <c r="K2" s="2">
+        <v>213875</v>
+      </c>
+      <c r="L2" s="5" t="str">
+        <f t="shared" ref="L2:L23" si="0">IF(J2 ="","",CONCATENATE("[",SUBSTITUTE(J2,"&amp;",""""),"]"))</f>
         <v>[https://phinf.pstatic.net/checkout.phinf/20231101_249/1698822349816httsK_JPEG/1000000136.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231101_253/1698822350052KAqoA_JPEG/1000000135.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231101_221/1698822350100wM6Tl_JPEG/1000000137.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231101_56/1698822350087xvmjo_JPEG/1000000139.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231101_277/1698822350258latQw_JPEG/1000000138.jpg]</v>
       </c>
-      <c r="L2" s="2">
-        <v>213875</v>
-      </c>
       <c r="M2" s="2" t="str">
-        <f t="shared" ref="M2:M23" si="1">LEFT(I2,19)</f>
+        <f>LEFT(I2,19)</f>
         <v>45231.6708548495</v>
       </c>
       <c r="N2" s="2" t="str">
-        <f t="shared" ref="N2:N23" si="2">"INSERT INTO product_review (created_date, img_urls, rating,text, order_product_id, product_item_id, user_id, writer_name, writer_nickname,channel_type, shopping_mall_product_id) values "&amp;O2</f>
+        <f t="shared" ref="N2:N23" si="1">"INSERT INTO product_review (created_date, img_urls, rating,text, order_product_id, product_item_id, user_id, writer_name, writer_nickname,channel_type, shopping_mall_product_id) values "&amp;O2</f>
         <v>INSERT INTO product_review (created_date, img_urls, rating,text, order_product_id, product_item_id, user_id, writer_name, writer_nickname,channel_type, shopping_mall_product_id) values ('45231.6708548495', '[https://phinf.pstatic.net/checkout.phinf/20231101_249/1698822349816httsK_JPEG/1000000136.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231101_253/1698822350052KAqoA_JPEG/1000000135.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231101_221/1698822350100wM6Tl_JPEG/1000000137.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231101_56/1698822350087xvmjo_JPEG/1000000139.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231101_277/1698822350258latQw_JPEG/1000000138.jpg]','5','오메가3에 신경쓰면서 몇년전부터 이것저것 정착못하고 먹어보다가 발견해서 구입했어요 배송이 빠른건 기본이고 더러 다른곳에선 약인데도 불구하고 지저분하게 온적이있어서 예민한데 배송상태도 깨끗해서 좋았습니다
 약사이즈도 먹기좋은사이즈고 자세한 성분과 설명이 통에잘적혀있어 좋았습니다! 이걸로 정착할려구요!',null,'213875',null,'suda****','suda****','SMARTSTORE',9354236742 );</v>
       </c>
       <c r="O2" s="2" t="str">
-        <f>"('"&amp;M2&amp;"', '"&amp;K2&amp;"','"&amp;G2&amp;"','"&amp;F2&amp;"',null,'"&amp;L2&amp;"',null,'"&amp;H2&amp;"','"&amp;H2&amp;"','SMARTSTORE',"&amp;B2&amp;" );"</f>
+        <f>"('"&amp;M2&amp;"', '"&amp;L2&amp;"','"&amp;G2&amp;"','"&amp;F2&amp;"',null,'"&amp;K2&amp;"',null,'"&amp;H2&amp;"','"&amp;H2&amp;"','SMARTSTORE',"&amp;B2&amp;" );"</f>
         <v>('45231.6708548495', '[https://phinf.pstatic.net/checkout.phinf/20231101_249/1698822349816httsK_JPEG/1000000136.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231101_253/1698822350052KAqoA_JPEG/1000000135.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231101_221/1698822350100wM6Tl_JPEG/1000000137.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231101_56/1698822350087xvmjo_JPEG/1000000139.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231101_277/1698822350258latQw_JPEG/1000000138.jpg]','5','오메가3에 신경쓰면서 몇년전부터 이것저것 정착못하고 먹어보다가 발견해서 구입했어요 배송이 빠른건 기본이고 더러 다른곳에선 약인데도 불구하고 지저분하게 온적이있어서 예민한데 배송상태도 깨끗해서 좋았습니다
 약사이즈도 먹기좋은사이즈고 자세한 성분과 설명이 통에잘적혀있어 좋았습니다! 이걸로 정착할려구요!',null,'213875',null,'suda****','suda****','SMARTSTORE',9354236742 );</v>
       </c>
-      <c r="P2" s="7" t="s">
-        <v>84</v>
+      <c r="P2" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1114,39 +1115,39 @@
         <v>9310350894</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1">
         <v>45227.643654641201</v>
       </c>
       <c r="J3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K3" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="K3" s="2">
+        <v>213875</v>
+      </c>
+      <c r="L3" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[https://phinf.pstatic.net/checkout.phinf/20231028_252/1698474372658UGlq5_JPEG/20231028_151054.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231028_107/16984743838047Tq4E_JPEG/20231028_151111.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231028_105/16984743910671Lvob_JPEG/20231028_151132.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231028_100/1698474398108GDrrJ_JPEG/20231028_151143.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231028_203/1698474405398cSfN3_JPEG/20231028_151210.jpg]</v>
       </c>
-      <c r="L3" s="2">
-        <v>213875</v>
-      </c>
       <c r="M3" s="2" t="str">
-        <f t="shared" ref="M3:M23" si="3">LEFT(I3,19)</f>
+        <f>LEFT(I3,19)</f>
         <v>45227.6436546412</v>
       </c>
       <c r="N3" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N3:N23" si="2">"INSERT INTO product_review (created_date, img_urls, rating,text, order_product_id, product_item_id, user_id, writer_name, writer_nickname,channel_type, shopping_mall_product_id) values "&amp;O3</f>
         <v>INSERT INTO product_review (created_date, img_urls, rating,text, order_product_id, product_item_id, user_id, writer_name, writer_nickname,channel_type, shopping_mall_product_id) values ('45227.6436546412', '[https://phinf.pstatic.net/checkout.phinf/20231028_252/1698474372658UGlq5_JPEG/20231028_151054.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231028_107/16984743838047Tq4E_JPEG/20231028_151111.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231028_105/16984743910671Lvob_JPEG/20231028_151132.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231028_100/1698474398108GDrrJ_JPEG/20231028_151143.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231028_203/1698474405398cSfN3_JPEG/20231028_151210.jpg]','5','평소에 불규칙한 생활습관으로 인해
 고지혈증이 있어서 오메가3는 
 절대 빼먹지 않고 꾸준히 복용하고 있어요~~&amp;quot; 미국산 원료에 각종 비타민D랑
@@ -1159,7 +1160,7 @@
 모든면에서 최고입니다!!',null,'213875',null,'pian****','pian****','SMARTSTORE',9354236742 );</v>
       </c>
       <c r="O3" s="2" t="str">
-        <f t="shared" ref="O3:O23" si="4">"('"&amp;M3&amp;"', '"&amp;K3&amp;"','"&amp;G3&amp;"','"&amp;F3&amp;"',null,'"&amp;L3&amp;"',null,'"&amp;H3&amp;"','"&amp;H3&amp;"','SMARTSTORE',"&amp;B3&amp;" );"</f>
+        <f t="shared" ref="O3:O23" si="3">"('"&amp;M3&amp;"', '"&amp;L3&amp;"','"&amp;G3&amp;"','"&amp;F3&amp;"',null,'"&amp;K3&amp;"',null,'"&amp;H3&amp;"','"&amp;H3&amp;"','SMARTSTORE',"&amp;B3&amp;" );"</f>
         <v>('45227.6436546412', '[https://phinf.pstatic.net/checkout.phinf/20231028_252/1698474372658UGlq5_JPEG/20231028_151054.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231028_107/16984743838047Tq4E_JPEG/20231028_151111.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231028_105/16984743910671Lvob_JPEG/20231028_151132.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231028_100/1698474398108GDrrJ_JPEG/20231028_151143.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231028_203/1698474405398cSfN3_JPEG/20231028_151210.jpg]','5','평소에 불규칙한 생활습관으로 인해
 고지혈증이 있어서 오메가3는 
 절대 빼먹지 않고 꾸준히 복용하고 있어요~~&amp;quot; 미국산 원료에 각종 비타민D랑
@@ -1171,8 +1172,8 @@
 너무 감사합니다~~^^ 목넘김도 좋고
 모든면에서 최고입니다!!',null,'213875',null,'pian****','pian****','SMARTSTORE',9354236742 );</v>
       </c>
-      <c r="P3" s="7" t="s">
-        <v>84</v>
+      <c r="P3" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1186,35 +1187,35 @@
         <v>9310350894</v>
       </c>
       <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="1">
         <v>45233.387598611109</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="6" t="str">
+        <v>18</v>
+      </c>
+      <c r="K4" s="2">
+        <v>213875</v>
+      </c>
+      <c r="L4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[https://phinf.pstatic.net/checkout.phinf/20231103_198/1698970667574lRklv_JPEG/IMG_8912.jpeg^|^https://phinf.pstatic.net/checkout.phinf/20231103_31/1698970683962ickzV_JPEG/IMG_8913.jpeg^|^https://phinf.pstatic.net/checkout.phinf/20231103_234/1698970684018zLSJ2_JPEG/IMG_8914.jpeg]</v>
       </c>
-      <c r="L4" s="2">
-        <v>213875</v>
-      </c>
       <c r="M4" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>LEFT(I4,19)</f>
         <v>45233.3875986111</v>
       </c>
       <c r="N4" s="2" t="str">
@@ -1224,13 +1225,13 @@
 매일 하루 한 알로 충족되니 너무 좋아요 ^^',null,'213875',null,'wsy1***','wsy1***','SMARTSTORE',9354236742 );</v>
       </c>
       <c r="O4" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>('45233.3875986111', '[https://phinf.pstatic.net/checkout.phinf/20231103_198/1698970667574lRklv_JPEG/IMG_8912.jpeg^|^https://phinf.pstatic.net/checkout.phinf/20231103_31/1698970683962ickzV_JPEG/IMG_8913.jpeg^|^https://phinf.pstatic.net/checkout.phinf/20231103_234/1698970684018zLSJ2_JPEG/IMG_8914.jpeg]','5','미국 직수입으로 미국에서 많이 먹는 오메가3라고 들었어요 가격도 저렴하고 오메가3외에도 비타민D랑 비타민E까지 함유되어 있어서 좋네요 다 먹으면 재구매 할 거예요 제 정착템 될 듯요!!
 일단 가격니 부답스럽지 않아 좋아요
 매일 하루 한 알로 충족되니 너무 좋아요 ^^',null,'213875',null,'wsy1***','wsy1***','SMARTSTORE',9354236742 );</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>84</v>
+      <c r="P4" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1244,35 +1245,35 @@
         <v>9310350894</v>
       </c>
       <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5">
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="1">
         <v>45235.778929884262</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="6" t="str">
+        <v>21</v>
+      </c>
+      <c r="K5" s="2">
+        <v>213875</v>
+      </c>
+      <c r="L5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[https://phinf.pstatic.net/checkout.phinf/20231105_241/1699177280878EDKyC_JPEG/20231105_183918.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231105_113/1699177280760SfcEP_JPEG/20231105_183910.jpg]</v>
       </c>
-      <c r="L5" s="2">
-        <v>213875</v>
-      </c>
       <c r="M5" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>LEFT(I5,19)</f>
         <v>45235.7789298843</v>
       </c>
       <c r="N5" s="2" t="str">
@@ -1280,11 +1281,11 @@
         <v>INSERT INTO product_review (created_date, img_urls, rating,text, order_product_id, product_item_id, user_id, writer_name, writer_nickname,channel_type, shopping_mall_product_id) values ('45235.7789298843', '[https://phinf.pstatic.net/checkout.phinf/20231105_241/1699177280878EDKyC_JPEG/20231105_183918.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231105_113/1699177280760SfcEP_JPEG/20231105_183910.jpg]','5','하루 한알이면 하루에 필요한 영영분을 섭취할수 있어서 너무  좋네요 게다가 비타민b와 비타민e까지 들어있어서 따로 챙겨먹을 필요도없고 체내흡수가 용이한 rtg형이라 체내흡수율도  좋더라구요 국내 rtg형우 가격대가 있어서 부담스러웠는데 착한가격에 품질이 우수해서 앞으로 이제품으로 정착하려구요',null,'213875',null,'tlqx****','tlqx****','SMARTSTORE',9354236742 );</v>
       </c>
       <c r="O5" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>('45235.7789298843', '[https://phinf.pstatic.net/checkout.phinf/20231105_241/1699177280878EDKyC_JPEG/20231105_183918.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231105_113/1699177280760SfcEP_JPEG/20231105_183910.jpg]','5','하루 한알이면 하루에 필요한 영영분을 섭취할수 있어서 너무  좋네요 게다가 비타민b와 비타민e까지 들어있어서 따로 챙겨먹을 필요도없고 체내흡수가 용이한 rtg형이라 체내흡수율도  좋더라구요 국내 rtg형우 가격대가 있어서 부담스러웠는데 착한가격에 품질이 우수해서 앞으로 이제품으로 정착하려구요',null,'213875',null,'tlqx****','tlqx****','SMARTSTORE',9354236742 );</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>84</v>
+      <c r="P5" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1298,35 +1299,35 @@
         <v>9310350894</v>
       </c>
       <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="1">
         <v>45229.759206782408</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="6" t="str">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2">
+        <v>213875</v>
+      </c>
+      <c r="L6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[https://phinf.pstatic.net/checkout.phinf/20231030_162/1698657187502oCMME_JPEG/KakaoTalk_20231030_181246590.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231030_51/1698657187538pSF3R_JPEG/KakaoTalk_20231030_181246590_02.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231030_283/1698657187512NQ8rY_JPEG/KakaoTalk_20231030_181246590_01.jpg]</v>
       </c>
-      <c r="L6" s="2">
-        <v>213875</v>
-      </c>
       <c r="M6" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>LEFT(I6,19)</f>
         <v>45229.7592067824</v>
       </c>
       <c r="N6" s="2" t="str">
@@ -1335,12 +1336,12 @@
 가격이 너무 괜찮더라고요. 가격 저렴한데 비타민D, E까지 들어있더라고요. 앞으로 맨날 챙겨먹을게요~',null,'213875',null,'powe******','powe******','SMARTSTORE',9354236742 );</v>
       </c>
       <c r="O6" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>('45229.7592067824', '[https://phinf.pstatic.net/checkout.phinf/20231030_162/1698657187502oCMME_JPEG/KakaoTalk_20231030_181246590.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231030_51/1698657187538pSF3R_JPEG/KakaoTalk_20231030_181246590_02.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231030_283/1698657187512NQ8rY_JPEG/KakaoTalk_20231030_181246590_01.jpg]','5','오메가3 기존에 먹고 있었는데 떨어져서 새로 찾다가 구매했어요. 일단 온누리스토어라서 믿고 구매했고. 
 가격이 너무 괜찮더라고요. 가격 저렴한데 비타민D, E까지 들어있더라고요. 앞으로 맨날 챙겨먹을게요~',null,'213875',null,'powe******','powe******','SMARTSTORE',9354236742 );</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>84</v>
+      <c r="P6" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1354,35 +1355,35 @@
         <v>9310350894</v>
       </c>
       <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="1">
         <v>45228.803647569446</v>
       </c>
       <c r="J7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="6" t="str">
+        <v>27</v>
+      </c>
+      <c r="K7" s="2">
+        <v>213875</v>
+      </c>
+      <c r="L7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[https://phinf.pstatic.net/checkout.phinf/20231030_248/1698640146562XDnQx_JPEG/KakaoTalk_20231029_191742087.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231030_1/1698640146589gB5Co_JPEG/KakaoTalk_20231029_191742087_01.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231030_35/1698640146625w4Q19_JPEG/KakaoTalk_20231029_191742087_02.jpg]</v>
       </c>
-      <c r="L7" s="2">
-        <v>213875</v>
-      </c>
       <c r="M7" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>LEFT(I7,19)</f>
         <v>45228.8036475694</v>
       </c>
       <c r="N7" s="2" t="str">
@@ -1392,13 +1393,13 @@
 하루에 한알 먹고 600mg 섭취가 가능하고 가격도 저렴한데 비타민d, e까지 들어가 있다고 하네요!',null,'213875',null,'ng51***','ng51***','SMARTSTORE',9354236742 );</v>
       </c>
       <c r="O7" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>('45228.8036475694', '[https://phinf.pstatic.net/checkout.phinf/20231030_248/1698640146562XDnQx_JPEG/KakaoTalk_20231029_191742087.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231030_1/1698640146589gB5Co_JPEG/KakaoTalk_20231029_191742087_01.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231030_35/1698640146625w4Q19_JPEG/KakaoTalk_20231029_191742087_02.jpg]','5','오메가3를 매번 먹어야지먹어야지 하다가 구매했어요!~ 
 미국 오메가3라 직수입으로 받았습니다ㅋㅋ
 하루에 한알 먹고 600mg 섭취가 가능하고 가격도 저렴한데 비타민d, e까지 들어가 있다고 하네요!',null,'213875',null,'ng51***','ng51***','SMARTSTORE',9354236742 );</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>84</v>
+      <c r="P7" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1412,35 +1413,35 @@
         <v>9310350894</v>
       </c>
       <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8">
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8" s="1">
         <v>45226.651206932867</v>
       </c>
       <c r="J8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="6" t="str">
+        <v>30</v>
+      </c>
+      <c r="K8" s="2">
+        <v>213875</v>
+      </c>
+      <c r="L8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[https://phinf.pstatic.net/checkout.phinf/20231027_143/16983886165867ybR7_JPEG/IMG_7299.jpeg^|^https://phinf.pstatic.net/checkout.phinf/20231027_11/1698388617036Gcs4R_JPEG/IMG_7300.jpeg^|^https://phinf.pstatic.net/checkout.phinf/20231027_135/16983886171732oauq_JPEG/IMG_7298.jpeg^|^https://phinf.pstatic.net/checkout.phinf/20231027_126/1698388617404BD4Ua_JPEG/IMG_7295.jpeg]</v>
       </c>
-      <c r="L8" s="2">
-        <v>213875</v>
-      </c>
       <c r="M8" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>LEFT(I8,19)</f>
         <v>45226.6512069329</v>
       </c>
       <c r="N8" s="2" t="str">
@@ -1449,12 +1450,12 @@
 미국 직수입 제품이라 안심하게 먹을 수 있을거같아요',null,'213875',null,'yubo****','yubo****','SMARTSTORE',9354236742 );</v>
       </c>
       <c r="O8" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>('45226.6512069329', '[https://phinf.pstatic.net/checkout.phinf/20231027_143/16983886165867ybR7_JPEG/IMG_7299.jpeg^|^https://phinf.pstatic.net/checkout.phinf/20231027_11/1698388617036Gcs4R_JPEG/IMG_7300.jpeg^|^https://phinf.pstatic.net/checkout.phinf/20231027_135/16983886171732oauq_JPEG/IMG_7298.jpeg^|^https://phinf.pstatic.net/checkout.phinf/20231027_126/1698388617404BD4Ua_JPEG/IMG_7295.jpeg]','5','기존에먹고잇던 오메가 다먹어서 주문했는데요 가격부담없이 저렴하게 살 수 있어ㅓㅅ 좋네요!
 미국 직수입 제품이라 안심하게 먹을 수 있을거같아요',null,'213875',null,'yubo****','yubo****','SMARTSTORE',9354236742 );</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>84</v>
+      <c r="P8" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1468,35 +1469,35 @@
         <v>9310350894</v>
       </c>
       <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I9" s="1">
         <v>45226.653004918982</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="6" t="str">
+        <v>33</v>
+      </c>
+      <c r="K9" s="2">
+        <v>213875</v>
+      </c>
+      <c r="L9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[https://phinf.pstatic.net/checkout.phinf/20231027_65/1698388775885MHU67_JPEG/KakaoTalk_20231027_153812639_01.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231027_152/16983887758455KvVg_JPEG/KakaoTalk_20231027_153812639.jpg]</v>
       </c>
-      <c r="L9" s="2">
-        <v>213875</v>
-      </c>
       <c r="M9" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>LEFT(I9,19)</f>
         <v>45226.653004919</v>
       </c>
       <c r="N9" s="2" t="str">
@@ -1505,12 +1506,12 @@
 온가족이 먹어서 빨리 빨리 없어지는데 여기제품 합리적인가격으로 구매할 수 있어서 좋아요!! 하루 한알 식후에 꼭 챙겨먹습니다!',null,'213875',null,'miju******','miju******','SMARTSTORE',9354236742 );</v>
       </c>
       <c r="O9" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>('45226.653004919', '[https://phinf.pstatic.net/checkout.phinf/20231027_65/1698388775885MHU67_JPEG/KakaoTalk_20231027_153812639_01.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231027_152/16983887758455KvVg_JPEG/KakaoTalk_20231027_153812639.jpg]','5','DCN오메가로 정착하려고요 ㅎ
 온가족이 먹어서 빨리 빨리 없어지는데 여기제품 합리적인가격으로 구매할 수 있어서 좋아요!! 하루 한알 식후에 꼭 챙겨먹습니다!',null,'213875',null,'miju******','miju******','SMARTSTORE',9354236742 );</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>84</v>
+      <c r="P9" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1524,35 +1525,35 @@
         <v>9310350894</v>
       </c>
       <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10">
         <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I10" s="1">
         <v>45226.473034814815</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="6" t="str">
+        <v>36</v>
+      </c>
+      <c r="K10" s="2">
+        <v>213875</v>
+      </c>
+      <c r="L10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[https://phinf.pstatic.net/checkout.phinf/20231027_14/1698373265869nm4b5_JPEG/1698373254596.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231027_215/1698373265868Rtmod_JPEG/1698373246042.jpg]</v>
       </c>
-      <c r="L10" s="2">
-        <v>213875</v>
-      </c>
       <c r="M10" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>LEFT(I10,19)</f>
         <v>45226.4730348148</v>
       </c>
       <c r="N10" s="2" t="str">
@@ -1560,11 +1561,11 @@
         <v>INSERT INTO product_review (created_date, img_urls, rating,text, order_product_id, product_item_id, user_id, writer_name, writer_nickname,channel_type, shopping_mall_product_id) values ('45226.4730348148', '[https://phinf.pstatic.net/checkout.phinf/20231027_14/1698373265869nm4b5_JPEG/1698373254596.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231027_215/1698373265868Rtmod_JPEG/1698373246042.jpg]','5','미국에서 직수입한 오메가3라고 하는데 하루 한알로 오메가3 600mg를 섭취 가능하니 좋더라구요~~가격도 저렴하고 비타민 D E 까지 들어있어서 만족스럽게 챙겨먹고 있어요~~',null,'213875',null,'kari******','kari******','SMARTSTORE',9354236742 );</v>
       </c>
       <c r="O10" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>('45226.4730348148', '[https://phinf.pstatic.net/checkout.phinf/20231027_14/1698373265869nm4b5_JPEG/1698373254596.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231027_215/1698373265868Rtmod_JPEG/1698373246042.jpg]','5','미국에서 직수입한 오메가3라고 하는데 하루 한알로 오메가3 600mg를 섭취 가능하니 좋더라구요~~가격도 저렴하고 비타민 D E 까지 들어있어서 만족스럽게 챙겨먹고 있어요~~',null,'213875',null,'kari******','kari******','SMARTSTORE',9354236742 );</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>84</v>
+      <c r="P10" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1578,35 +1579,35 @@
         <v>9310350894</v>
       </c>
       <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="1">
         <v>45227.457279907409</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="6" t="str">
+        <v>39</v>
+      </c>
+      <c r="K11" s="2">
+        <v>213875</v>
+      </c>
+      <c r="L11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[https://phinf.pstatic.net/checkout.phinf/20231028_93/16984583003704rWRs_JPEG/20231028_105511.jpg]</v>
       </c>
-      <c r="L11" s="2">
-        <v>213875</v>
-      </c>
       <c r="M11" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>LEFT(I11,19)</f>
         <v>45227.4572799074</v>
       </c>
       <c r="N11" s="2" t="str">
@@ -1614,11 +1615,11 @@
         <v>INSERT INTO product_review (created_date, img_urls, rating,text, order_product_id, product_item_id, user_id, writer_name, writer_nickname,channel_type, shopping_mall_product_id) values ('45227.4572799074', '[https://phinf.pstatic.net/checkout.phinf/20231028_93/16984583003704rWRs_JPEG/20231028_105511.jpg]','5','한알로 하루섭취량 섭취가능해서 간편하니 좋아여 가격도 합리적이고 비타민도 들어있다고 하니 따로안챙겨먹어도될거같아요 ㅎㅎ 다먹으면 재구매의사 10000퍼 입니다',null,'213875',null,'rlck***','rlck***','SMARTSTORE',9354236742 );</v>
       </c>
       <c r="O11" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>('45227.4572799074', '[https://phinf.pstatic.net/checkout.phinf/20231028_93/16984583003704rWRs_JPEG/20231028_105511.jpg]','5','한알로 하루섭취량 섭취가능해서 간편하니 좋아여 가격도 합리적이고 비타민도 들어있다고 하니 따로안챙겨먹어도될거같아요 ㅎㅎ 다먹으면 재구매의사 10000퍼 입니다',null,'213875',null,'rlck***','rlck***','SMARTSTORE',9354236742 );</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>84</v>
+      <c r="P11" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1632,35 +1633,35 @@
         <v>9310350894</v>
       </c>
       <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12">
         <v>5</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" s="1">
         <v>45234.622211134258</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="6" t="str">
+        <v>42</v>
+      </c>
+      <c r="K12" s="2">
+        <v>213875</v>
+      </c>
+      <c r="L12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[https://phinf.pstatic.net/checkout.phinf/20231104_125/16990773540943IDbr_JPEG/IMG_3245.jpeg]</v>
       </c>
-      <c r="L12" s="2">
-        <v>213875</v>
-      </c>
       <c r="M12" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>LEFT(I12,19)</f>
         <v>45234.6222111343</v>
       </c>
       <c r="N12" s="2" t="str">
@@ -1668,11 +1669,11 @@
         <v>INSERT INTO product_review (created_date, img_urls, rating,text, order_product_id, product_item_id, user_id, writer_name, writer_nickname,channel_type, shopping_mall_product_id) values ('45234.6222111343', '[https://phinf.pstatic.net/checkout.phinf/20231104_125/16990773540943IDbr_JPEG/IMG_3245.jpeg]','5','목넘김이 어렵지 않아 챙겨 먹기 좋습니다👍🏻',null,'213875',null,'jjc2***','jjc2***','SMARTSTORE',9354236742 );</v>
       </c>
       <c r="O12" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>('45234.6222111343', '[https://phinf.pstatic.net/checkout.phinf/20231104_125/16990773540943IDbr_JPEG/IMG_3245.jpeg]','5','목넘김이 어렵지 않아 챙겨 먹기 좋습니다👍🏻',null,'213875',null,'jjc2***','jjc2***','SMARTSTORE',9354236742 );</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>84</v>
+      <c r="P12" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1686,35 +1687,35 @@
         <v>9310350894</v>
       </c>
       <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
         <v>10</v>
       </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13">
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I13" s="1">
         <v>45235.421505138889</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="6" t="str">
+        <v>45</v>
+      </c>
+      <c r="K13" s="2">
+        <v>213875</v>
+      </c>
+      <c r="L13" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L13" s="2">
-        <v>213875</v>
-      </c>
       <c r="M13" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>LEFT(I13,19)</f>
         <v>45235.4215051389</v>
       </c>
       <c r="N13" s="2" t="str">
@@ -1722,11 +1723,11 @@
         <v>INSERT INTO product_review (created_date, img_urls, rating,text, order_product_id, product_item_id, user_id, writer_name, writer_nickname,channel_type, shopping_mall_product_id) values ('45235.4215051389', '','5','가격대비 양 질이좋은듯요',null,'213875',null,'rlat********','rlat********','SMARTSTORE',9354236742 );</v>
       </c>
       <c r="O13" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>('45235.4215051389', '','5','가격대비 양 질이좋은듯요',null,'213875',null,'rlat********','rlat********','SMARTSTORE',9354236742 );</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>84</v>
+      <c r="P13" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1740,35 +1741,35 @@
         <v>9310562895</v>
       </c>
       <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
         <v>47</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>48</v>
       </c>
       <c r="G14">
         <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I14" s="1">
         <v>45236.575738530089</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" s="6" t="str">
+        <v>49</v>
+      </c>
+      <c r="K14" s="2">
+        <v>213875</v>
+      </c>
+      <c r="L14" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[https://phinf.pstatic.net/checkout.phinf/20231106_288/1699245854008Sjz0O_JPEG/KakaoTalk_20231106_134356743_01.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231106_131/1699245854088b6xc4_JPEG/KakaoTalk_20231106_134356743_03.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231106_144/1699245854049mBJKy_JPEG/KakaoTalk_20231106_134356743_02.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231106_20/1699245853981nMnKt_JPEG/KakaoTalk_20231106_134356743.jpg]</v>
       </c>
-      <c r="L14" s="2">
-        <v>213875</v>
-      </c>
       <c r="M14" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>LEFT(I14,19)</f>
         <v>45236.5757385301</v>
       </c>
       <c r="N14" s="2" t="str">
@@ -1784,7 +1785,7 @@
 가격도 좋고 성분까지 좋은 오메가 찾으시면 진짜 추천드려요 저도 한 10개 제품은 골라골라서 선택한 제품입니다~!!!',null,'213875',null,'kimd******','kimd******','SMARTSTORE',9354450215 );</v>
       </c>
       <c r="O14" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>('45236.5757385301', '[https://phinf.pstatic.net/checkout.phinf/20231106_288/1699245854008Sjz0O_JPEG/KakaoTalk_20231106_134356743_01.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231106_131/1699245854088b6xc4_JPEG/KakaoTalk_20231106_134356743_03.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231106_144/1699245854049mBJKy_JPEG/KakaoTalk_20231106_134356743_02.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231106_20/1699245853981nMnKt_JPEG/KakaoTalk_20231106_134356743.jpg]','5','미국 직수입 제품이라 믿고 먹고 있어요.
 아무래도 미국꺼니까 믿음이 가는거 같고요.
 한알로 600mg 섭취가 가능한데 비타민까지 들어있다는거 보고 너무 좋겠다 싶어서 구매해서 먹은지 2주가량 되가는데 확실히 몸이 좋아지는 느낌이 드네요.
@@ -1795,8 +1796,8 @@
 비타민이랑 영양제 알아보다가 이 제품까지 시키게 된건데 가격도 부담이 없어서 저같이 돈이 없는 사람에게도 부담스럽지 않게 사먹을 수 있어서 좋아요.
 가격도 좋고 성분까지 좋은 오메가 찾으시면 진짜 추천드려요 저도 한 10개 제품은 골라골라서 선택한 제품입니다~!!!',null,'213875',null,'kimd******','kimd******','SMARTSTORE',9354450215 );</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
+      <c r="P14" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1810,35 +1811,35 @@
         <v>9310562895</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15">
         <v>5</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I15" s="1">
         <v>45235.780254722224</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
-      </c>
-      <c r="K15" s="6" t="str">
+        <v>52</v>
+      </c>
+      <c r="K15" s="2">
+        <v>213875</v>
+      </c>
+      <c r="L15" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[https://phinf.pstatic.net/checkout.phinf/20231105_17/1699177407375AndCo_JPEG/20231105_184011.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231105_74/1699177407332TfKsc_JPEG/20231105_184031.jpg]</v>
       </c>
-      <c r="L15" s="2">
-        <v>213875</v>
-      </c>
       <c r="M15" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>LEFT(I15,19)</f>
         <v>45235.7802547222</v>
       </c>
       <c r="N15" s="2" t="str">
@@ -1847,12 +1848,12 @@
 100프로 미국생산이라 믿을수있고 고품질 가성비제품이라 너무 마음에 들어요 알약 크기도 적당해서 목넘김도 좋네요 가족들이 다같이 먹다보니 한통 금방먹을꺼 같아서 한꺼번에 몇통더 주문해야겠어요 ㅎ',null,'213875',null,'lieo****','lieo****','SMARTSTORE',9354450215 );</v>
       </c>
       <c r="O15" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>('45235.7802547222', '[https://phinf.pstatic.net/checkout.phinf/20231105_17/1699177407375AndCo_JPEG/20231105_184011.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231105_74/1699177407332TfKsc_JPEG/20231105_184031.jpg]','5','나이먹으니 오메가3는 필수라고 주변에서 그래서 주문해봤어요
 100프로 미국생산이라 믿을수있고 고품질 가성비제품이라 너무 마음에 들어요 알약 크기도 적당해서 목넘김도 좋네요 가족들이 다같이 먹다보니 한통 금방먹을꺼 같아서 한꺼번에 몇통더 주문해야겠어요 ㅎ',null,'213875',null,'lieo****','lieo****','SMARTSTORE',9354450215 );</v>
       </c>
-      <c r="P15" s="7" t="s">
-        <v>84</v>
+      <c r="P15" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1866,35 +1867,35 @@
         <v>9310562895</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16">
         <v>5</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I16" s="1">
         <v>45229.441247083334</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" s="6" t="str">
+        <v>55</v>
+      </c>
+      <c r="K16" s="2">
+        <v>213875</v>
+      </c>
+      <c r="L16" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[https://phinf.pstatic.net/checkout.phinf/20231030_162/1698629508188n1NrC_JPEG/20231029_234812.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231030_16/1698629509613doAjv_JPEG/20231029_235006.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231030_117/1698629510519OeWsR_JPEG/20231029_235014.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231030_288/16986295101897PRio_JPEG/20231029_235027.jpg]</v>
       </c>
-      <c r="L16" s="2">
-        <v>213875</v>
-      </c>
       <c r="M16" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>LEFT(I16,19)</f>
         <v>45229.4412470833</v>
       </c>
       <c r="N16" s="2" t="str">
@@ -1903,12 +1904,12 @@
 알티지 오메가인데 가격도 저렴해서 바로 구매했어요 ㅎㅎ DCN 미국 오메가3는 처음인데 가격적인 메리트랑 함량이 좋아서 여기에 정착해보려합니다^^',null,'213875',null,'jsa1*****','jsa1*****','SMARTSTORE',9354450215 );</v>
       </c>
       <c r="O16" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>('45229.4412470833', '[https://phinf.pstatic.net/checkout.phinf/20231030_162/1698629508188n1NrC_JPEG/20231029_234812.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231030_16/1698629509613doAjv_JPEG/20231029_235006.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231030_117/1698629510519OeWsR_JPEG/20231029_235014.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231030_288/16986295101897PRio_JPEG/20231029_235027.jpg]','5','오메가3 필수 영양제로 꼭 챙겨먹으려고 하는데 
 알티지 오메가인데 가격도 저렴해서 바로 구매했어요 ㅎㅎ DCN 미국 오메가3는 처음인데 가격적인 메리트랑 함량이 좋아서 여기에 정착해보려합니다^^',null,'213875',null,'jsa1*****','jsa1*****','SMARTSTORE',9354450215 );</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>84</v>
+      <c r="P16" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1922,35 +1923,35 @@
         <v>9310562895</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G17">
         <v>5</v>
       </c>
       <c r="H17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I17" s="1">
         <v>45231.48338125</v>
       </c>
       <c r="J17" t="s">
-        <v>59</v>
-      </c>
-      <c r="K17" s="6" t="str">
+        <v>58</v>
+      </c>
+      <c r="K17" s="2">
+        <v>213875</v>
+      </c>
+      <c r="L17" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[https://phinf.pstatic.net/checkout.phinf/20231101_163/16988059629952bl4Y_JPEG/1000047050.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231101_180/1698805962978I2c7J_JPEG/1000047049.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231101_151/1698805963162rlIGo_JPEG/1000047051.jpg]</v>
       </c>
-      <c r="L17" s="2">
-        <v>213875</v>
-      </c>
       <c r="M17" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>LEFT(I17,19)</f>
         <v>45231.48338125</v>
       </c>
       <c r="N17" s="2" t="str">
@@ -1958,11 +1959,11 @@
         <v>INSERT INTO product_review (created_date, img_urls, rating,text, order_product_id, product_item_id, user_id, writer_name, writer_nickname,channel_type, shopping_mall_product_id) values ('45231.48338125', '[https://phinf.pstatic.net/checkout.phinf/20231101_163/16988059629952bl4Y_JPEG/1000047050.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231101_180/1698805962978I2c7J_JPEG/1000047049.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231101_151/1698805963162rlIGo_JPEG/1000047051.jpg]','5','오메가3 필수로 챙겨먹어야한다고해서 구매했는데 함유량도 높고 미국 직수입이라해서 믿음도 가네요 ㅎㅎ 비타민 D와 비타민E까지 모두 들어가있는데 가격도 저렴해서 부담없이 잘 챙겨먹을거 같아요!',null,'213875',null,'jooh******','jooh******','SMARTSTORE',9354450215 );</v>
       </c>
       <c r="O17" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>('45231.48338125', '[https://phinf.pstatic.net/checkout.phinf/20231101_163/16988059629952bl4Y_JPEG/1000047050.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231101_180/1698805962978I2c7J_JPEG/1000047049.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231101_151/1698805963162rlIGo_JPEG/1000047051.jpg]','5','오메가3 필수로 챙겨먹어야한다고해서 구매했는데 함유량도 높고 미국 직수입이라해서 믿음도 가네요 ㅎㅎ 비타민 D와 비타민E까지 모두 들어가있는데 가격도 저렴해서 부담없이 잘 챙겨먹을거 같아요!',null,'213875',null,'jooh******','jooh******','SMARTSTORE',9354450215 );</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>84</v>
+      <c r="P17" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1976,35 +1977,35 @@
         <v>9310562895</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G18">
         <v>5</v>
       </c>
       <c r="H18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I18" s="1">
         <v>45228.741401747684</v>
       </c>
       <c r="J18" t="s">
-        <v>62</v>
-      </c>
-      <c r="K18" s="6" t="str">
+        <v>61</v>
+      </c>
+      <c r="K18" s="2">
+        <v>213875</v>
+      </c>
+      <c r="L18" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[https://phinf.pstatic.net/checkout.phinf/20231029_132/16985688893267uCXt_JPEG/20231028_181655.jpg]</v>
       </c>
-      <c r="L18" s="2">
-        <v>213875</v>
-      </c>
       <c r="M18" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>LEFT(I18,19)</f>
         <v>45228.7414017477</v>
       </c>
       <c r="N18" s="2" t="str">
@@ -2014,13 +2015,13 @@
 오메가의 긴 유목생활 끝내고 DCN으로 정착하겠어요~',null,'213875',null,'qhdt******','qhdt******','SMARTSTORE',9354450215 );</v>
       </c>
       <c r="O18" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>('45228.7414017477', '[https://phinf.pstatic.net/checkout.phinf/20231029_132/16985688893267uCXt_JPEG/20231028_181655.jpg]','5','매일 먹어야하는 미국 직수입 rtg오메가인데 가격이 너무 혜자네요!
 심지어 600mg 한알에 필수 비타민이지만 특히 한국인에게 많이 부족한 D, E까지 한반에 챙길수있더라구요
 오메가의 긴 유목생활 끝내고 DCN으로 정착하겠어요~',null,'213875',null,'qhdt******','qhdt******','SMARTSTORE',9354450215 );</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>84</v>
+      <c r="P18" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2034,35 +2035,35 @@
         <v>9310573972</v>
       </c>
       <c r="D19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
         <v>63</v>
-      </c>
-      <c r="E19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" t="s">
-        <v>64</v>
       </c>
       <c r="G19">
         <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I19" s="1">
         <v>45233.438231793982</v>
       </c>
       <c r="J19" t="s">
-        <v>66</v>
-      </c>
-      <c r="K19" s="6" t="str">
+        <v>65</v>
+      </c>
+      <c r="K19" s="2">
+        <v>213875</v>
+      </c>
+      <c r="L19" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[https://phinf.pstatic.net/checkout.phinf/20231103_189/1698974755428L80O5_JPEG/%A2%B4%A1%C6%A1%D7_%281%29.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231103_57/1698974755533COtAz_JPEG/%A2%B4%A1%C6%A1%D7_%283%29.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231103_243/1698974755479TaxvF_JPEG/%A2%B4%A1%C6%A1%D7_%282%29.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231103_204/1698974755582qAA72_JPEG/%A2%B4%A1%C6%A1%D7_%285%29.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231103_149/1698974755555m6A9I_JPEG/%A2%B4%A1%C6%A1%D7_%284%29.jpg]</v>
       </c>
-      <c r="L19" s="2">
-        <v>213875</v>
-      </c>
       <c r="M19" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>LEFT(I19,19)</f>
         <v>45233.438231794</v>
       </c>
       <c r="N19" s="2" t="str">
@@ -2073,14 +2074,14 @@
 무엇보다 가격이 진짜 가성비 너무 저렴해서 계속 사먹을거 같아요 굿!',null,'213875',null,'gost*********','gost*********','SMARTSTORE',9354461367 );</v>
       </c>
       <c r="O19" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>('45233.438231794', '[https://phinf.pstatic.net/checkout.phinf/20231103_189/1698974755428L80O5_JPEG/%A2%B4%A1%C6%A1%D7_%281%29.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231103_57/1698974755533COtAz_JPEG/%A2%B4%A1%C6%A1%D7_%283%29.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231103_243/1698974755479TaxvF_JPEG/%A2%B4%A1%C6%A1%D7_%282%29.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231103_204/1698974755582qAA72_JPEG/%A2%B4%A1%C6%A1%D7_%285%29.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231103_149/1698974755555m6A9I_JPEG/%A2%B4%A1%C6%A1%D7_%284%29.jpg]','5','요즘 기본적으로 오메가3는 다 챙겨먹더라구요
 저도 이제 나이도 나이인만큼 건강챙기려고 고함량으로 알아보다 여기 알티지 오메가3 성분확인하고 구매했어요^^ 총 12개월분치고는 가격이 다른데 비해 많이 저렴한편인거같아 부담없었어요~ 일단 알약 상태를 보면 먹기 좋은 사이즈라 목넘김 괜찮았구요 ㅎㅎ
 미국 본토 오메가3만을 고집한다니 뭔가 더 좋을거 같은 느낌 ㅋㅋ 하루 한알로 1일 섭취량 600mg으로 100% 다 섭취가능하고 비타민D와 비타민E도 함께 섭취할수 있으니 금상첨화죠~~ 특히 이런건 중금속 위험을 생각안할수 없는데 먹이사슬 최하단 소형어류만 사용했다고 하니 더욱 안심하고 먹을수 있겠어요~
 무엇보다 가격이 진짜 가성비 너무 저렴해서 계속 사먹을거 같아요 굿!',null,'213875',null,'gost*********','gost*********','SMARTSTORE',9354461367 );</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>84</v>
+      <c r="P19" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2094,35 +2095,35 @@
         <v>9310573972</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G20">
         <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I20" s="1">
         <v>45229.474904733797</v>
       </c>
       <c r="J20" t="s">
-        <v>69</v>
-      </c>
-      <c r="K20" s="6" t="str">
+        <v>68</v>
+      </c>
+      <c r="K20" s="2">
+        <v>213875</v>
+      </c>
+      <c r="L20" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[https://phinf.pstatic.net/checkout.phinf/20231030_47/1698632471770oy3QL_JPEG/KakaoTalk_20231027_184359468.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231030_108/16986324717391W50Q_JPEG/KakaoTalk_20231027_184221736.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231030_121/1698632471737ahpEy_JPEG/KakaoTalk_20231027_184326907.jpg]</v>
       </c>
-      <c r="L20" s="2">
-        <v>213875</v>
-      </c>
       <c r="M20" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>LEFT(I20,19)</f>
         <v>45229.4749047338</v>
       </c>
       <c r="N20" s="2" t="str">
@@ -2130,11 +2131,11 @@
         <v>INSERT INTO product_review (created_date, img_urls, rating,text, order_product_id, product_item_id, user_id, writer_name, writer_nickname,channel_type, shopping_mall_product_id) values ('45229.4749047338', '[https://phinf.pstatic.net/checkout.phinf/20231030_47/1698632471770oy3QL_JPEG/KakaoTalk_20231027_184359468.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231030_108/16986324717391W50Q_JPEG/KakaoTalk_20231027_184221736.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231030_121/1698632471737ahpEy_JPEG/KakaoTalk_20231027_184326907.jpg]','5','나이도 나이인지라 이제 영양제를 챙겨먹어야 겠다 싶어서 오메가3도 알아보던 참에 구매하게 됐습니다. 타사 오메가3 보다 가격도 저렴하고 알티지 오메가에 비타민D,E까지 들어있다는 점이 좋은거 같고요.  가격이 괜찮아서 다떨어져도 부담없이 챙겨 먹을 수 있을 거 같아요. 미국 직수입이라는데 믿음도 가고 한번 섭취로 600MG 를 섭취할 수 있다는 점이 장점 아닌가 싶습니다. 앞으로 꾸준히 먹어야겠네요',null,'213875',null,'sosa***','sosa***','SMARTSTORE',9354461367 );</v>
       </c>
       <c r="O20" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>('45229.4749047338', '[https://phinf.pstatic.net/checkout.phinf/20231030_47/1698632471770oy3QL_JPEG/KakaoTalk_20231027_184359468.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231030_108/16986324717391W50Q_JPEG/KakaoTalk_20231027_184221736.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231030_121/1698632471737ahpEy_JPEG/KakaoTalk_20231027_184326907.jpg]','5','나이도 나이인지라 이제 영양제를 챙겨먹어야 겠다 싶어서 오메가3도 알아보던 참에 구매하게 됐습니다. 타사 오메가3 보다 가격도 저렴하고 알티지 오메가에 비타민D,E까지 들어있다는 점이 좋은거 같고요.  가격이 괜찮아서 다떨어져도 부담없이 챙겨 먹을 수 있을 거 같아요. 미국 직수입이라는데 믿음도 가고 한번 섭취로 600MG 를 섭취할 수 있다는 점이 장점 아닌가 싶습니다. 앞으로 꾸준히 먹어야겠네요',null,'213875',null,'sosa***','sosa***','SMARTSTORE',9354461367 );</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>84</v>
+      <c r="P20" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2148,35 +2149,35 @@
         <v>9310573972</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G21">
         <v>5</v>
       </c>
       <c r="H21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I21" s="1">
         <v>45226.500331331015</v>
       </c>
       <c r="J21" t="s">
-        <v>72</v>
-      </c>
-      <c r="K21" s="6" t="str">
+        <v>71</v>
+      </c>
+      <c r="K21" s="2">
+        <v>213875</v>
+      </c>
+      <c r="L21" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[https://phinf.pstatic.net/checkout.phinf/20231027_160/1698375520309ngT8V_JPEG/1698373247820.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231027_113/1698375520410Qb5JY_JPEG/1698373253229.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231027_137/1698375520411JwPvS_JPEG/1698373251129.jpg]</v>
       </c>
-      <c r="L21" s="2">
-        <v>213875</v>
-      </c>
       <c r="M21" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>LEFT(I21,19)</f>
         <v>45226.500331331</v>
       </c>
       <c r="N21" s="2" t="str">
@@ -2184,11 +2185,11 @@
         <v>INSERT INTO product_review (created_date, img_urls, rating,text, order_product_id, product_item_id, user_id, writer_name, writer_nickname,channel_type, shopping_mall_product_id) values ('45226.500331331', '[https://phinf.pstatic.net/checkout.phinf/20231027_160/1698375520309ngT8V_JPEG/1698373247820.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231027_113/1698375520410Qb5JY_JPEG/1698373253229.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231027_137/1698375520411JwPvS_JPEG/1698373251129.jpg]','5','매일 챙겨야할 영양성분중 오메가3를 놓칠수 없어서 구매해서 먹는데 가격도 저렴해서 부담없이 잘 챙겨먹을 수 있겠더라구요~~ 비타민 D와 E까지 들어있어서 넘 좋아요~~ 이제 DCN으로 오메가 3 정착해야겠어요~~👍👍',null,'213875',null,'jkhh*****','jkhh*****','SMARTSTORE',9354461367 );</v>
       </c>
       <c r="O21" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>('45226.500331331', '[https://phinf.pstatic.net/checkout.phinf/20231027_160/1698375520309ngT8V_JPEG/1698373247820.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231027_113/1698375520410Qb5JY_JPEG/1698373253229.jpg^|^https://phinf.pstatic.net/checkout.phinf/20231027_137/1698375520411JwPvS_JPEG/1698373251129.jpg]','5','매일 챙겨야할 영양성분중 오메가3를 놓칠수 없어서 구매해서 먹는데 가격도 저렴해서 부담없이 잘 챙겨먹을 수 있겠더라구요~~ 비타민 D와 E까지 들어있어서 넘 좋아요~~ 이제 DCN으로 오메가 3 정착해야겠어요~~👍👍',null,'213875',null,'jkhh*****','jkhh*****','SMARTSTORE',9354461367 );</v>
       </c>
-      <c r="P21" s="7" t="s">
-        <v>84</v>
+      <c r="P21" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2202,35 +2203,35 @@
         <v>9310573972</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G22">
         <v>5</v>
       </c>
       <c r="H22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I22" s="1">
         <v>45229.87154403935</v>
       </c>
       <c r="J22" t="s">
-        <v>75</v>
-      </c>
-      <c r="K22" s="6" t="str">
+        <v>74</v>
+      </c>
+      <c r="K22" s="2">
+        <v>213875</v>
+      </c>
+      <c r="L22" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[https://phinf.pstatic.net/checkout.phinf/20231030_192/1698666884996xTEcn_JPEG/20231030_204411.jpg]</v>
       </c>
-      <c r="L22" s="2">
-        <v>213875</v>
-      </c>
       <c r="M22" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>LEFT(I22,19)</f>
         <v>45229.8715440393</v>
       </c>
       <c r="N22" s="2" t="str">
@@ -2238,11 +2239,11 @@
         <v>INSERT INTO product_review (created_date, img_urls, rating,text, order_product_id, product_item_id, user_id, writer_name, writer_nickname,channel_type, shopping_mall_product_id) values ('45229.8715440393', '[https://phinf.pstatic.net/checkout.phinf/20231030_192/1698666884996xTEcn_JPEG/20231030_204411.jpg]','5','오메가3가 비싸서 망설이다가 다른데보다 가격이 저렴한 편이라 구매했어요 하루 한알만 섭취하면 돼서 먹기 간편하고 알티지 오메가이면서 비타민 D,E도 들어있어서 잘 구매한것 같아요 꾸준히 챙겨먹고 또 구매할게요!',null,'213875',null,'rlaw******','rlaw******','SMARTSTORE',9354461367 );</v>
       </c>
       <c r="O22" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>('45229.8715440393', '[https://phinf.pstatic.net/checkout.phinf/20231030_192/1698666884996xTEcn_JPEG/20231030_204411.jpg]','5','오메가3가 비싸서 망설이다가 다른데보다 가격이 저렴한 편이라 구매했어요 하루 한알만 섭취하면 돼서 먹기 간편하고 알티지 오메가이면서 비타민 D,E도 들어있어서 잘 구매한것 같아요 꾸준히 챙겨먹고 또 구매할게요!',null,'213875',null,'rlaw******','rlaw******','SMARTSTORE',9354461367 );</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>84</v>
+      <c r="P22" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2256,35 +2257,35 @@
         <v>9310573972</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G23">
         <v>5</v>
       </c>
       <c r="H23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I23" s="1">
         <v>45225.820468749997</v>
       </c>
       <c r="J23" t="s">
-        <v>78</v>
-      </c>
-      <c r="K23" s="6" t="str">
+        <v>77</v>
+      </c>
+      <c r="K23" s="2">
+        <v>213875</v>
+      </c>
+      <c r="L23" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[https://phinf.pstatic.net/checkout.phinf/20231026_54/1698316879305Uv843_JPEG/IMG_5791.jpeg^|^https://phinf.pstatic.net/checkout.phinf/20231026_71/1698316879539q5aXv_JPEG/IMG_5790.jpeg]</v>
       </c>
-      <c r="L23" s="2">
-        <v>213875</v>
-      </c>
       <c r="M23" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>LEFT(I23,19)</f>
         <v>45225.82046875</v>
       </c>
       <c r="N23" s="2" t="str">
@@ -2292,11 +2293,11 @@
         <v>INSERT INTO product_review (created_date, img_urls, rating,text, order_product_id, product_item_id, user_id, writer_name, writer_nickname,channel_type, shopping_mall_product_id) values ('45225.82046875', '[https://phinf.pstatic.net/checkout.phinf/20231026_54/1698316879305Uv843_JPEG/IMG_5791.jpeg^|^https://phinf.pstatic.net/checkout.phinf/20231026_71/1698316879539q5aXv_JPEG/IMG_5790.jpeg]','5','오메가3 특유의 비린향이 없어 먹기도 좋구요!! 한알로 600mg나 함유되어있어 먹기 넘 간편하네요 저렴하게 고함량으로 완전 득템한 거 같아요 ㅎㅎ 비타민D와 E까지 함유되어있네요:)',null,'213875',null,'appl******','appl******','SMARTSTORE',9354461367 );</v>
       </c>
       <c r="O23" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>('45225.82046875', '[https://phinf.pstatic.net/checkout.phinf/20231026_54/1698316879305Uv843_JPEG/IMG_5791.jpeg^|^https://phinf.pstatic.net/checkout.phinf/20231026_71/1698316879539q5aXv_JPEG/IMG_5790.jpeg]','5','오메가3 특유의 비린향이 없어 먹기도 좋구요!! 한알로 600mg나 함유되어있어 먹기 넘 간편하네요 저렴하게 고함량으로 완전 득템한 거 같아요 ㅎㅎ 비타민D와 E까지 함유되어있네요:)',null,'213875',null,'appl******','appl******','SMARTSTORE',9354461367 );</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>84</v>
+      <c r="P23" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
